--- a/uml2es/examples/hr/data/mapping/acme-mapping.xlsx
+++ b/uml2es/examples/hr/data/mapping/acme-mapping.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Properties:</t>
   </si>
@@ -147,6 +147,30 @@
   </si>
   <si>
     <t>History can have multipe entries. Select the one with most recent effective date.</t>
+  </si>
+  <si>
+    <t>Discovery: Collections</t>
+  </si>
+  <si>
+    <t>Discovery: URI Patterns</t>
+  </si>
+  <si>
+    <t>Discovery: Sample Data</t>
+  </si>
+  <si>
+    <t>Discovery: Alternate Names</t>
+  </si>
+  <si>
+    <t>Linebreak on Mac: Ctrl-Option-Return</t>
+  </si>
+  <si>
+    <t>Linebreak on Windows: Alt-Return</t>
+  </si>
+  <si>
+    <t>Rosanne</t>
+  </si>
+  <si>
+    <t>Henckle</t>
   </si>
 </sst>
 </file>
@@ -230,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -247,30 +271,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,30 +653,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="46" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="46" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="46" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
+      <c r="A5" s="15"/>
     </row>
     <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -689,7 +710,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
@@ -697,7 +718,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
@@ -705,7 +726,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="10"/>
+      <c r="B7" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -714,10 +735,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -725,8 +746,8 @@
     <col min="1" max="1" width="47.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="30.5" customWidth="1"/>
     <col min="6" max="6" width="5.33203125" customWidth="1"/>
     <col min="7" max="7" width="4.83203125" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" customWidth="1"/>
@@ -747,126 +768,172 @@
     <col min="23" max="23" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="26" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="18"/>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10"/>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="D12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+    <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+    <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C10:C13"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C16:C19"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uml2es/examples/hr/data/mapping/acme-mapping.xlsx
+++ b/uml2es/examples/hr/data/mapping/acme-mapping.xlsx
@@ -149,28 +149,30 @@
     <t>History can have multipe entries. Select the one with most recent effective date.</t>
   </si>
   <si>
-    <t>Discovery: Collections</t>
-  </si>
-  <si>
-    <t>Discovery: URI Patterns</t>
-  </si>
-  <si>
-    <t>Discovery: Sample Data</t>
-  </si>
-  <si>
-    <t>Discovery: Alternate Names</t>
-  </si>
-  <si>
     <t>Linebreak on Mac: Ctrl-Option-Return</t>
   </si>
   <si>
     <t>Linebreak on Windows: Alt-Return</t>
   </si>
   <si>
-    <t>Rosanne</t>
-  </si>
-  <si>
-    <t>Henckle</t>
+    <t>Discovery: Collections - separate with commas or linebreaks</t>
+  </si>
+  <si>
+    <t>Discovery: URI Patterns - separate with linebreaks</t>
+  </si>
+  <si>
+    <t>Discovery: Sample Data - separate with linebreaks</t>
+  </si>
+  <si>
+    <t>Discovery: Alternate Names - separate with linebreaks or commas</t>
+  </si>
+  <si>
+    <t>Rosanne
+Robert</t>
+  </si>
+  <si>
+    <t>Henckle
+Smith</t>
   </si>
 </sst>
 </file>
@@ -743,7 +745,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="47.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.33203125" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.1640625" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
@@ -794,19 +796,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" s="17"/>
     </row>
@@ -816,13 +818,13 @@
     </row>
     <row r="8" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" s="6"/>
     </row>
@@ -836,7 +838,7 @@
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
@@ -847,10 +849,10 @@
         <v>13</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -863,7 +865,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
@@ -871,11 +873,11 @@
         <v>5</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -883,7 +885,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>39</v>
       </c>
     </row>
